--- a/biology/Médecine/Charte_du_patient_hospitalisé/Charte_du_patient_hospitalisé.xlsx
+++ b/biology/Médecine/Charte_du_patient_hospitalisé/Charte_du_patient_hospitalisé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charte_du_patient_hospitalis%C3%A9</t>
+          <t>Charte_du_patient_hospitalisé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, la charte du patient hospitalisé est annexée à la circulaire ministérielle no 95-22 du 6 mai 1995, relative aux droits des patients hospitalisés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charte_du_patient_hospitalis%C3%A9</t>
+          <t>Charte_du_patient_hospitalisé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principes généraux de la charte du patient hospitalisé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le service public hospitalier est accessible à tous et en particulier aux personnes les plus démunies. Il est adapté aux personnes handicapées.
 Les établissements de santé garantissent la qualité des traitements, des soins et de l’accueil. Ils sont attentifs au soulagement de la douleur.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charte_du_patient_hospitalis%C3%A9</t>
+          <t>Charte_du_patient_hospitalisé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le malade, le blessé, la femme enceinte, accueilli en établissement de santé ou suivi en hospitalisation à domicile, ainsi que la personne âgée hébergée, est une personne avec des droits et des devoirs.
 Elle ne saurait être considérée uniquement, ni même principalement, du point de vue de sa pathologie, de son handicap ou de son âge.
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charte_du_patient_hospitalis%C3%A9</t>
+          <t>Charte_du_patient_hospitalisé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>De l'accès au service hospitalier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les établissements de santé qui assurent le service public hospitalier accueillent toutes personnes, quels que soient leur origine, leur sexe, leur situation de famille, leur âge, leur état de santé, leur handicap, leurs opinions politiques, syndicales, philosophiques ou religieuses.
 Ils les accueillent de jour comme de nuit, éventuellement en urgence. À défaut, ils doivent tout mettre en œuvre pour assurer leur admission dans un autre établissement.
@@ -614,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Charte_du_patient_hospitalis%C3%A9</t>
+          <t>Charte_du_patient_hospitalisé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,7 +650,9 @@
           <t>Des soins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les établissements de santé assurent les examens de diagnostic, la surveillance et le traitement des malades, des blessés et femmes enceintes en tenant compte des aspects psychologiques des patients. Ils leur dispensent les soins préventifs, curatifs ou palliatifs que requiert leur état, et veillent à la continuité des soins à l'issue de leur admission ou de leur hébergement.
 Au cours de ces traitements et ces soins, la prise en compte de la dimension douloureuse, physique et psychologique des patients, et le soulagement de la souffrance, doivent être une préoccupation constante de tous les intervenants. Tout établissement doit se doter des moyens propres à prendre en charge la douleur des patients qu'ils accueillent, et intégrer ces moyens dans son projet d'établissement, en application de l'article L. 710-3-1 du code de la santé publique (loi n°95-116 du 4 février 1995).
@@ -648,7 +668,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Charte_du_patient_hospitalis%C3%A9</t>
+          <t>Charte_du_patient_hospitalisé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -666,7 +686,9 @@
           <t>De l'information du patient et de ses proches</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les établissements doivent veiller à ce que l'information médicale et sociale des patients soit assurée et que les moyens mis en œuvre soient adaptés aux éventuelles difficultés de communication ou de compréhension des patients, afin de garantir à tous l'égalité d'accès à l'information.
 Le secret médical n'est pas opposable au patient. Le médecin doit donner une information simple, accessible, intelligible et loyale à tous les patients. Il répond avec tact et de façon adaptée aux questions de ceux-ci. Afin que le patient puisse participer pleinement, notamment aux choix thérapeutiques qui le concernent et à leur mise en œuvre quotidienne, les médecins et le personnel paramédical participent à l'information du malade, chacun dans son domaine de compétences.
@@ -683,7 +705,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Charte_du_patient_hospitalis%C3%A9</t>
+          <t>Charte_du_patient_hospitalisé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -701,7 +723,9 @@
           <t>Du principe général du consentement préalable</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'intangibilité de l'intégrité corporelle de chaque personne et l'indisponibilité du corps humain sont des principes fondamentaux auxquels il ne peut être dérogé que par nécessité thérapeutique pour la personne et avec son consentement préalable. C'est pourquoi, aucun acte médical ne peut être pratiqué sans le consentement du patient, hors le cas où son état rend nécessaire cet acte auquel il n'est pas à même de consentir.
 Ce consentement doit être libre et renouvelé pour tout acte médical ultérieur. Il doit être éclairé, c'est-à-dire que le patient doit avoir été préalablement informé des actes qu'il va subir, des risques normalement prévisibles en l'état des connaissances scientifiques et des conséquences que ceux-ci pourraient entraîner.
@@ -718,7 +742,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Charte_du_patient_hospitalis%C3%A9</t>
+          <t>Charte_du_patient_hospitalisé</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -736,7 +760,9 @@
           <t>Du consentement spécifique pour certains actes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus du principe général du consentement préalable, des dispositions particulières s'appliquent notamment pour les actes ci-après.
 Préalablement à la réalisation d'une recherche biomédicale sur une personne, le consentement libre, éclairé et exprès doit être recueilli dans le strict respect des articles L. 209-1 et suivants du code de la santé publique. Des dispositions particulières sont applicables respectivement aux femmes enceintes ou qui allaitent, aux personnes privées de liberté par une décision judiciaire ou administrative, aux mineurs, majeurs sous tutelle, personnes séjournant dans un établissement sanitaire ou social et malades en situation d'urgence.
@@ -758,7 +784,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Charte_du_patient_hospitalis%C3%A9</t>
+          <t>Charte_du_patient_hospitalisé</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -776,7 +802,9 @@
           <t>De la liberté individuelle</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Un patient hospitalisé peut, à tout moment, quitter l'établissement après avoir été informé des risques possibles pour son état, et après avoir signé une décharge. À défaut de cette décharge, un document interne est rédigé.
 Le patient ne peut être retenu dans l'établissement en dehors du cas des personnes ayant nécessité, en raison de troubles mentaux, une hospitalisation à la demande d'un tiers, ou d'office, et sous réserve des dispositions applicables aux mineurs, et sous certaines conditions aux majeurs faisant l'objet d'une mesure de protection légale.
@@ -792,7 +820,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Charte_du_patient_hospitalis%C3%A9</t>
+          <t>Charte_du_patient_hospitalisé</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -810,7 +838,9 @@
           <t>Du respect de la personne et de son intimité</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le respect de l'intimité du patient doit être préservé lors des soins, des toilettes, des consultations et des visites médicales, des traitements pré et postopératoires, des radiographies, des brancardages et à tout moment de son séjour hospitalier. La personne hospitalisée est traitée avec égards et ne doit pas souffrir de propos et d'attitudes équivoques de la part du personnel.
 Les patients hospitalisés dans un établissement assurant également des missions d'enseignement donnent leur consentement préalable, s'ils sont amenés à faire l'objet de ces missions, notamment lors de la présentation de cas aux étudiants en médecine. Il ne peut être passé outre à un refus du patient. Les mêmes prescriptions doivent être respectées en ce qui concerne les actions de formation initiale et continue des personnels médicaux et paramédicaux ayant lieu auprès des patients.
@@ -827,7 +857,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Charte_du_patient_hospitalis%C3%A9</t>
+          <t>Charte_du_patient_hospitalisé</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -845,7 +875,9 @@
           <t>Du droit à la vie privée et à la confidentialité</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout patient hospitalisé a le droit au respect de sa vie privée comme le prévoient l'article 9 du code civil et la Convention européenne des Droits de l'Homme.
 Le personnel hospitalier est tenu au secret professionnel défini par les articles 226-13 et 226-14 du code pénal et à la discrétion professionnelle définie par l'article 26 de la loi n° 83-634 du 13 juillet 1983 modifiée, relative aux droits et obligations des fonctionnaires.
@@ -863,7 +895,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Charte_du_patient_hospitalis%C3%A9</t>
+          <t>Charte_du_patient_hospitalisé</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -881,7 +913,9 @@
           <t>De l'accès aux informations contenues dans les dossiers administratifs et médicaux</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis, la loi 2002-303 du 4 mars 2002, relative aux droits des malades et à la qualité du système de santé, le patient bénéficie d'un accès direct au contenu de son dossier médical, sans passer par l'intermédiaire d'un médecin comme auparavant. Le patient peut soit obtenir la communication de son dossier par l'envoi de copies, soit consulter sur place son dossier. En cas de consultation sur place, il peut se faire assister par une tierce personne. En cas d'envoi de copies de son dossier, les frais de reproduction et d'envoi sont à sa charge.
 Le médecin qui a orienté un patient vers un établissement de santé a accès au dossier médical de ce patient, avec l'accord de celui-ci. Il est tenu informé de l'état de santé de son patient par un praticien hospitalier, dans les meilleurs délais.
@@ -898,7 +932,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Charte_du_patient_hospitalis%C3%A9</t>
+          <t>Charte_du_patient_hospitalisé</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -916,7 +950,9 @@
           <t>Des voies de recours</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Indépendamment de la possibilité de répondre au questionnaire de sortie remis avec le livret d'accueil à chaque patient, une personne hospitalisée peut faire part directement au directeur de l'établissement de santé de ses observations.
 Chaque établissement est invité à organiser un suivi de la qualité des soins et de l'accueil à partir notamment de l'examen et du traitement des questionnaires, des réclamations exprimées auprès du directeur ou de son représentant et des plaintes ultérieures.
